--- a/htmlbox pro/leftcolumn/Fotografi videografi.xlsx
+++ b/htmlbox pro/leftcolumn/Fotografi videografi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>Sigma</t>
+  </si>
+  <si>
+    <t>FujiFilm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panasonic </t>
+  </si>
+  <si>
+    <t>All Brand</t>
   </si>
 </sst>
 </file>
@@ -110,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,9 +151,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:F30"/>
+  <dimension ref="C1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -508,178 +524,268 @@
       </c>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9">
+      <c r="C9" s="2">
+        <v>274</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="2">
+        <v>378</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="2">
+        <v>351</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="2">
+        <v>379</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="2">
+        <v>380</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="2">
+        <v>381</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="2">
+        <v>382</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="2">
+        <v>383</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="2">
+        <v>683</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18">
         <v>153</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
-      <c r="C10">
+    <row r="19" spans="3:6">
+      <c r="C19">
         <v>631</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
-      <c r="C11">
+    <row r="20" spans="3:6">
+      <c r="C20">
         <v>692</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
-      <c r="C12">
+    <row r="21" spans="3:6">
+      <c r="C21">
         <v>693</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
-      <c r="C13">
+    <row r="22" spans="3:6">
+      <c r="C22">
         <v>694</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
-      <c r="C14">
+    <row r="23" spans="3:6">
+      <c r="C23">
         <v>390</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
-      <c r="C15">
+    <row r="24" spans="3:6">
+      <c r="C24">
         <v>391</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
-      <c r="C16">
+    <row r="25" spans="3:6">
+      <c r="C25">
         <v>393</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
-      <c r="C17">
+    <row r="26" spans="3:6">
+      <c r="C26">
         <v>708</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
-      <c r="C18">
+    <row r="27" spans="3:6">
+      <c r="C27">
         <v>709</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19">
+    <row r="28" spans="3:6">
+      <c r="C28">
         <v>396</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
-      <c r="C20">
+    <row r="29" spans="3:6">
+      <c r="C29">
         <v>394</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21">
+    <row r="30" spans="3:6">
+      <c r="C30">
         <v>395</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22">
+    <row r="31" spans="3:6">
+      <c r="C31">
         <v>716</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23">
+    <row r="32" spans="3:6">
+      <c r="C32">
         <v>397</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
-      <c r="C24">
+    <row r="33" spans="3:5">
+      <c r="C33">
         <v>715</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
-      <c r="C25">
+    <row r="34" spans="3:5">
+      <c r="C34">
         <v>695</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
-      <c r="C26">
+    <row r="35" spans="3:5">
+      <c r="C35">
         <v>723</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
-      <c r="C27">
+    <row r="36" spans="3:5">
+      <c r="C36">
         <v>718</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
-      <c r="C28">
+    <row r="37" spans="3:5">
+      <c r="C37">
         <v>724</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
-      <c r="C29">
+    <row r="38" spans="3:5">
+      <c r="C38">
         <v>721</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
-      <c r="C30">
+    <row r="39" spans="3:5">
+      <c r="C39">
         <v>720</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E39" t="s">
         <v>26</v>
       </c>
     </row>

--- a/htmlbox pro/leftcolumn/Fotografi videografi.xlsx
+++ b/htmlbox pro/leftcolumn/Fotografi videografi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>All Brand</t>
+  </si>
+  <si>
+    <t>Brica</t>
+  </si>
+  <si>
+    <t>JVC</t>
+  </si>
+  <si>
+    <t>Toshiba</t>
+  </si>
+  <si>
+    <t>GoPro</t>
   </si>
 </sst>
 </file>
@@ -151,10 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:F39"/>
+  <dimension ref="C1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -476,7 +490,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="3:6">
-      <c r="C3">
+      <c r="C3" s="3">
         <v>271</v>
       </c>
       <c r="D3" t="s">
@@ -484,7 +498,7 @@
       </c>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4">
+      <c r="C4" s="3">
         <v>684</v>
       </c>
       <c r="E4" t="s">
@@ -492,7 +506,7 @@
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5">
+      <c r="C5" s="3">
         <v>685</v>
       </c>
       <c r="E5" t="s">
@@ -500,7 +514,7 @@
       </c>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6">
+      <c r="C6" s="3">
         <v>686</v>
       </c>
       <c r="E6" t="s">
@@ -508,7 +522,7 @@
       </c>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7">
+      <c r="C7" s="3">
         <v>687</v>
       </c>
       <c r="E7" t="s">
@@ -516,7 +530,7 @@
       </c>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8">
+      <c r="C8" s="3">
         <v>688</v>
       </c>
       <c r="E8" t="s">
@@ -524,97 +538,97 @@
       </c>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>274</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="3:6">
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>378</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="3:6">
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>351</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>379</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>380</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>381</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>382</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="3:6">
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>383</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>683</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18">
+      <c r="C18" s="3">
         <v>153</v>
       </c>
       <c r="D18" t="s">
@@ -622,7 +636,7 @@
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19">
+      <c r="C19" s="3">
         <v>631</v>
       </c>
       <c r="E19" t="s">
@@ -630,7 +644,7 @@
       </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20">
+      <c r="C20" s="3">
         <v>692</v>
       </c>
       <c r="E20" t="s">
@@ -638,7 +652,7 @@
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21">
+      <c r="C21" s="3">
         <v>693</v>
       </c>
       <c r="E21" t="s">
@@ -646,7 +660,7 @@
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22">
+      <c r="C22" s="3">
         <v>694</v>
       </c>
       <c r="E22" t="s">
@@ -654,142 +668,223 @@
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23">
+      <c r="C23" s="4">
+        <v>385</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="4">
+        <v>384</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="4">
+        <v>386</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="4">
+        <v>387</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="4">
+        <v>388</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="4">
+        <v>349</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="4">
+        <v>696</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="4">
+        <v>690</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="3">
         <v>390</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
-      <c r="C24">
+    <row r="32" spans="3:6">
+      <c r="C32" s="3">
         <v>391</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
-      <c r="C25">
+    <row r="33" spans="3:5">
+      <c r="C33" s="3">
         <v>393</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
-      <c r="C26">
+    <row r="34" spans="3:5">
+      <c r="C34" s="3">
         <v>708</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
-      <c r="C27">
+    <row r="35" spans="3:5">
+      <c r="C35" s="3">
         <v>709</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
-      <c r="C28">
+    <row r="36" spans="3:5">
+      <c r="C36" s="3">
         <v>396</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="3:6">
-      <c r="C29">
+    <row r="37" spans="3:5">
+      <c r="C37" s="3">
         <v>394</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
-      <c r="C30">
+    <row r="38" spans="3:5">
+      <c r="C38" s="3">
         <v>395</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="3:6">
-      <c r="C31">
+    <row r="39" spans="3:5">
+      <c r="C39" s="3">
         <v>716</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="3:6">
-      <c r="C32">
+    <row r="40" spans="3:5">
+      <c r="C40" s="3">
         <v>397</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
-      <c r="C33">
+    <row r="41" spans="3:5">
+      <c r="C41" s="3">
         <v>715</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
-      <c r="C34">
+    <row r="42" spans="3:5">
+      <c r="C42" s="3">
         <v>695</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
-      <c r="C35">
+    <row r="43" spans="3:5">
+      <c r="C43" s="3">
         <v>723</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
-      <c r="C36">
+    <row r="44" spans="3:5">
+      <c r="C44" s="3">
         <v>718</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
-      <c r="C37">
+    <row r="45" spans="3:5">
+      <c r="C45" s="3">
         <v>724</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
-      <c r="C38">
+    <row r="46" spans="3:5">
+      <c r="C46" s="3">
         <v>721</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
-      <c r="C39">
+    <row r="47" spans="3:5">
+      <c r="C47" s="3">
         <v>720</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E47" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>